--- a/src/test/resources/testcases/excel.xlsx
+++ b/src/test/resources/testcases/excel.xlsx
@@ -418,7 +418,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
